--- a/Eye_Tracker_Raw_Data/LookTime/500ms/nolabels/Implicit Retrieval/Tadpole_ET_summary_IR_500ms_NoLabels_4.5-5.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/500ms/nolabels/Implicit Retrieval/Tadpole_ET_summary_IR_500ms_NoLabels_4.5-5.xlsx
@@ -50,7 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -354,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6739,49 +6740,49 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
       </c>
       <c r="N52" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="O52" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P52" s="1">
         <v>0</v>
@@ -6790,43 +6791,43 @@
         <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="S52" s="1">
         <v>0</v>
       </c>
       <c r="T52" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="U52" s="1">
         <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="W52" s="1">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="X52" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
       </c>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AD52" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AE52" s="1">
         <v>0</v>
@@ -6835,123 +6836,123 @@
         <v>0</v>
       </c>
       <c r="AG52" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AH52" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AI52" s="1">
         <v>0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
       <c r="AL52" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AM52" s="1">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AN52" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AO52" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E53" s="1">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="F53" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J53" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="L53" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
       </c>
       <c r="N53" s="1">
-        <v>0.48</v>
+        <v>0.15</v>
       </c>
       <c r="O53" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="P53" s="1">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q53" s="1">
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1">
         <v>0</v>
       </c>
       <c r="T53" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="U53" s="1">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="V53" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="W53" s="1">
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y53" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="1">
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
       <c r="AB53" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="AD53" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="1">
         <v>0</v>
@@ -6960,25 +6961,25 @@
         <v>0</v>
       </c>
       <c r="AG53" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="1">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="AI53" s="1">
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AL53" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="1">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="1">
         <v>0.48</v>
@@ -6989,19 +6990,19 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
       </c>
       <c r="C54" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -7013,28 +7014,28 @@
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
       </c>
       <c r="N54" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O54" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="P54" s="1">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="1">
         <v>0</v>
@@ -7049,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="1">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="V54" s="1">
         <v>0</v>
@@ -7058,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -7067,13 +7068,13 @@
         <v>0</v>
       </c>
       <c r="AA54" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="1">
         <v>0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="1">
         <v>0</v>
@@ -7088,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="1">
         <v>0</v>
@@ -7097,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -7106,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="1">
         <v>0</v>
@@ -7114,13 +7115,13 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -7132,13 +7133,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -7156,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P55" s="1">
         <v>0</v>
@@ -7168,10 +7169,10 @@
         <v>0</v>
       </c>
       <c r="S55" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="T55" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="U55" s="1">
         <v>0</v>
@@ -7183,13 +7184,13 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
       <c r="Z55" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AA55" s="1">
         <v>0</v>
@@ -7198,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AD55" s="1">
         <v>0</v>
@@ -7219,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -7228,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN55" s="1">
         <v>0</v>
@@ -7239,13 +7240,13 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="C56" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -7254,16 +7255,16 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G56" s="1">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I56" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -7281,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="O56" s="1">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="P56" s="1">
         <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="T56" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="U56" s="1">
         <v>0</v>
@@ -7308,13 +7309,13 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
       <c r="Z56" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="1">
         <v>0</v>
@@ -7323,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="1">
         <v>0</v>
@@ -7332,19 +7333,19 @@
         <v>0</v>
       </c>
       <c r="AF56" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AG56" s="1">
         <v>0</v>
       </c>
       <c r="AH56" s="1">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AI56" s="1">
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="1">
         <v>0</v>
@@ -7353,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AN56" s="1">
         <v>0</v>
@@ -7364,7 +7365,7 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -7376,293 +7377,293 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F57" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="G57" s="1">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="H57" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="AK57" s="1">
         <v>0.17</v>
       </c>
-      <c r="I57" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
-        <v>0</v>
-      </c>
-      <c r="M57" s="1">
-        <v>0</v>
-      </c>
-      <c r="N57" s="1">
-        <v>0</v>
-      </c>
-      <c r="O57" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="R57" s="1">
-        <v>0</v>
-      </c>
-      <c r="S57" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="T57" s="1">
-        <v>0</v>
-      </c>
-      <c r="U57" s="1">
-        <v>0</v>
-      </c>
-      <c r="V57" s="1">
-        <v>0</v>
-      </c>
-      <c r="W57" s="1">
-        <v>0</v>
-      </c>
-      <c r="X57" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="Y57" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AG57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="AI57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="1">
-        <v>0</v>
-      </c>
       <c r="AL57" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
       </c>
       <c r="AN57" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AO57" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="F58" s="1">
-        <v>0.13</v>
+        <v>0.47</v>
       </c>
       <c r="G58" s="1">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O58" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO58" s="1">
         <v>0.27</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="K58" s="1">
-        <v>0</v>
-      </c>
-      <c r="L58" s="1">
-        <v>0</v>
-      </c>
-      <c r="M58" s="1">
-        <v>0</v>
-      </c>
-      <c r="N58" s="1">
-        <v>0</v>
-      </c>
-      <c r="O58" s="1">
-        <v>0</v>
-      </c>
-      <c r="P58" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="R58" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="S58" s="1">
-        <v>0</v>
-      </c>
-      <c r="T58" s="1">
-        <v>0</v>
-      </c>
-      <c r="U58" s="1">
-        <v>0</v>
-      </c>
-      <c r="V58" s="1">
-        <v>0</v>
-      </c>
-      <c r="W58" s="1">
-        <v>0</v>
-      </c>
-      <c r="X58" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="Y58" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="AA58" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AB58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AD58" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AE58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="AG58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="AK58" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="AL58" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AM58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN58" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AO58" s="1">
-        <v>0.25</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="C59" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="E59" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I59" s="1">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="M59" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N59" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O59" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.48</v>
       </c>
       <c r="P59" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -7674,10 +7675,10 @@
         <v>0</v>
       </c>
       <c r="U59" s="1">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
       <c r="V59" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="W59" s="1">
         <v>0</v>
@@ -7689,7 +7690,7 @@
         <v>0.47</v>
       </c>
       <c r="Z59" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AA59" s="1">
         <v>0</v>
@@ -7698,60 +7699,60 @@
         <v>0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AD59" s="1">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AE59" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AF59" s="1">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AG59" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AH59" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AI59" s="1">
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AK59" s="1">
         <v>0</v>
       </c>
       <c r="AL59" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
       </c>
       <c r="AN59" s="1">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="AO59" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B60" s="1">
-        <v>0.48</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="F60" s="1">
         <v>0.48</v>
@@ -7763,25 +7764,25 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I60" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="L60" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="O60" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="P60" s="1">
         <v>0</v>
@@ -7793,52 +7794,52 @@
         <v>0</v>
       </c>
       <c r="S60" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
       </c>
       <c r="U60" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="V60" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="W60" s="1">
         <v>0</v>
       </c>
       <c r="X60" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y60" s="1">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="Z60" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AB60" s="1">
         <v>0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="AD60" s="1">
-        <v>0.46</v>
+        <v>0.04</v>
       </c>
       <c r="AE60" s="1">
-        <v>0.02</v>
+        <v>0.43</v>
       </c>
       <c r="AF60" s="1">
-        <v>0.26</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG60" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="1">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="AI60" s="1">
         <v>0</v>
@@ -7850,51 +7851,51 @@
         <v>0</v>
       </c>
       <c r="AL60" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
       </c>
       <c r="AN60" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AO60" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B61" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="E61" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
       <c r="J61" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="L61" s="1">
         <v>0</v>
@@ -7903,22 +7904,22 @@
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="O61" s="1">
         <v>0</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="Q61" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
       </c>
       <c r="S61" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="T61" s="1">
         <v>0</v>
@@ -7927,49 +7928,49 @@
         <v>0</v>
       </c>
       <c r="V61" s="1">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="W61" s="1">
         <v>0</v>
       </c>
       <c r="X61" s="1">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="Y61" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AA61" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="1">
         <v>0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="1">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AH61" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="AI61" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AJ61" s="1">
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
       <c r="AK61" s="1">
         <v>0</v>
@@ -7989,19 +7990,19 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C62" s="1">
-        <v>0.47</v>
+        <v>0.04</v>
       </c>
       <c r="D62" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -8010,31 +8011,31 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I62" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="J62" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J62" s="1">
-        <v>0</v>
-      </c>
       <c r="K62" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1">
         <v>0</v>
       </c>
       <c r="M62" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="N62" s="1">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="O62" s="1">
         <v>0</v>
       </c>
       <c r="P62" s="1">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q62" s="1">
         <v>0</v>
@@ -8043,40 +8044,40 @@
         <v>0</v>
       </c>
       <c r="S62" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="U62" s="1">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="V62" s="1">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="W62" s="1">
         <v>0</v>
       </c>
       <c r="X62" s="1">
-        <v>0.44</v>
+        <v>0.03</v>
       </c>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
       <c r="Z62" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AC62" s="1">
         <v>0</v>
       </c>
       <c r="AD62" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AE62" s="1">
         <v>0</v>
@@ -8088,173 +8089,173 @@
         <v>0.47</v>
       </c>
       <c r="AH62" s="1">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
       <c r="AI62" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="1">
         <v>0</v>
       </c>
       <c r="AL62" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
       </c>
       <c r="AN62" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AO62" s="1">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="C63" s="1">
-        <v>0.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="I63" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM63" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K63" s="1">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1">
-        <v>0</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="N63" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="O63" s="1">
-        <v>0</v>
-      </c>
-      <c r="P63" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>0</v>
-      </c>
-      <c r="R63" s="1">
-        <v>0</v>
-      </c>
-      <c r="S63" s="1">
-        <v>0</v>
-      </c>
-      <c r="T63" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="U63" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="V63" s="1">
-        <v>0</v>
-      </c>
-      <c r="W63" s="1">
-        <v>0</v>
-      </c>
-      <c r="X63" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="Y63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AB63" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AC63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AE63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="AH63" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AI63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM63" s="1">
-        <v>0</v>
-      </c>
       <c r="AN63" s="1">
-        <v>0.03</v>
+        <v>0.48</v>
       </c>
       <c r="AO63" s="1">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E64" s="1">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -8263,43 +8264,43 @@
         <v>0.47</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="M64" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="N64" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="O64" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="P64" s="1">
         <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1">
         <v>0</v>
       </c>
       <c r="T64" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="U64" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="V64" s="1">
         <v>0</v>
@@ -8308,55 +8309,55 @@
         <v>0.47</v>
       </c>
       <c r="X64" s="1">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="Z64" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="1">
         <v>0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="1">
         <v>0</v>
       </c>
       <c r="AD64" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="1">
         <v>0</v>
       </c>
       <c r="AF64" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="1">
         <v>0</v>
       </c>
       <c r="AH64" s="1">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="AI64" s="1">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AJ64" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AK64" s="1">
         <v>0</v>
       </c>
       <c r="AL64" s="1">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="AM64" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="AN64" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AO64" s="1">
         <v>0</v>
@@ -8364,7 +8365,7 @@
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -8373,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -8385,10 +8386,10 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
@@ -8397,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="M65" s="1">
         <v>0</v>
@@ -8406,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="P65" s="1">
         <v>0</v>
@@ -8421,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="U65" s="1">
         <v>0</v>
@@ -8430,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="W65" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="X65" s="1">
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1">
         <v>0</v>
@@ -8463,22 +8464,22 @@
         <v>0</v>
       </c>
       <c r="AH65" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="1">
         <v>0</v>
       </c>
       <c r="AL65" s="1">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AN65" s="1">
         <v>0</v>
@@ -8489,28 +8490,28 @@
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -8525,34 +8526,34 @@
         <v>0</v>
       </c>
       <c r="M66" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="N66" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O66" s="1">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="P66" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Q66" s="1">
         <v>0</v>
       </c>
       <c r="R66" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="S66" s="1">
         <v>0</v>
       </c>
       <c r="T66" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="U66" s="1">
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="W66" s="1">
         <v>0</v>
@@ -8564,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AA66" s="1">
         <v>0</v>
@@ -8579,13 +8580,13 @@
         <v>0</v>
       </c>
       <c r="AE66" s="1">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AF66" s="1">
         <v>0</v>
       </c>
       <c r="AG66" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AH66" s="1">
         <v>0</v>
@@ -8594,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AK66" s="1">
         <v>0</v>
@@ -8606,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="AN66" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AO66" s="1">
         <v>0</v>
@@ -8614,124 +8615,124 @@
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B67" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="C67" s="1">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>0.13</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F67" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="L67" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="M67" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N67" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="X67" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="1">
         <v>0.1</v>
       </c>
-      <c r="O67" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="P67" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="S67" s="1">
-        <v>0</v>
-      </c>
-      <c r="T67" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="U67" s="1">
-        <v>0</v>
-      </c>
-      <c r="V67" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="W67" s="1">
-        <v>0</v>
-      </c>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="AA67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="AF67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="AH67" s="1">
-        <v>0</v>
-      </c>
       <c r="AI67" s="1">
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
       </c>
       <c r="AM67" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AN67" s="1">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="AO67" s="1">
         <v>0</v>
@@ -8739,64 +8740,64 @@
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B68" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E68" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0</v>
-      </c>
-      <c r="K68" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="L68" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0</v>
-      </c>
-      <c r="N68" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="O68" s="1">
-        <v>0</v>
-      </c>
-      <c r="P68" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="R68" s="1">
-        <v>0</v>
-      </c>
       <c r="S68" s="1">
         <v>0</v>
       </c>
       <c r="T68" s="1">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="U68" s="1">
         <v>0</v>
@@ -8805,26 +8806,26 @@
         <v>0</v>
       </c>
       <c r="W68" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="X68" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Y68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="1">
         <v>0.41</v>
       </c>
-      <c r="Z68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="1">
-        <v>0</v>
-      </c>
       <c r="AD68" s="1">
         <v>0</v>
       </c>
@@ -8832,13 +8833,13 @@
         <v>0</v>
       </c>
       <c r="AF68" s="1">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="1">
         <v>0</v>
       </c>
       <c r="AH68" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AI68" s="1">
         <v>0</v>
@@ -8847,16 +8848,16 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AM68" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AN68" s="1">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AO68" s="1">
         <v>0</v>
@@ -8864,7 +8865,7 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -8873,25 +8874,25 @@
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="E69" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="J69" s="1">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
         <v>0</v>
@@ -8900,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="M69" s="1">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N69" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="O69" s="1">
         <v>0</v>
@@ -8912,19 +8913,19 @@
         <v>0</v>
       </c>
       <c r="Q69" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="R69" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="S69" s="1">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="T69" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="U69" s="1">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="V69" s="1">
         <v>0</v>
@@ -8933,26 +8934,26 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AD69" s="1">
         <v>0.02</v>
       </c>
-      <c r="Y69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="AA69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="AD69" s="1">
-        <v>0</v>
-      </c>
       <c r="AE69" s="1">
         <v>0</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="AI69" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AJ69" s="1">
         <v>0</v>
@@ -8975,13 +8976,13 @@
         <v>0</v>
       </c>
       <c r="AL69" s="1">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
       </c>
       <c r="AN69" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AO69" s="1">
         <v>0</v>
@@ -8989,40 +8990,40 @@
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D70" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="L70" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="M70" s="1">
         <v>0</v>
@@ -9031,25 +9032,25 @@
         <v>0</v>
       </c>
       <c r="O70" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="P70" s="1">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="Q70" s="1">
-        <v>0.48</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R70" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
       <c r="T70" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="U70" s="1">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="V70" s="1">
         <v>0</v>
@@ -9058,100 +9059,100 @@
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
       <c r="Z70" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AA70" s="1">
         <v>0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AC70" s="1">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="AD70" s="1">
-        <v>0.02</v>
+        <v>0.49</v>
       </c>
       <c r="AE70" s="1">
         <v>0</v>
       </c>
       <c r="AF70" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AG70" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AH70" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AI70" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AL70" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AN70" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AO70" s="1">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F71" s="1">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H71" s="1">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I71" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="M71" s="1">
         <v>0.31</v>
       </c>
-      <c r="K71" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="L71" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="M71" s="1">
-        <v>0</v>
-      </c>
       <c r="N71" s="1">
         <v>0</v>
       </c>
@@ -9159,28 +9160,28 @@
         <v>0.47</v>
       </c>
       <c r="P71" s="1">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="Q71" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
       </c>
       <c r="S71" s="1">
-        <v>0.48</v>
+        <v>0.02</v>
       </c>
       <c r="T71" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="U71" s="1">
         <v>0</v>
       </c>
       <c r="V71" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="W71" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X71" s="1">
         <v>0</v>
@@ -9189,40 +9190,40 @@
         <v>0</v>
       </c>
       <c r="Z71" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AB71" s="1">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="AC71" s="1">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="1">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AE71" s="1">
         <v>0</v>
       </c>
       <c r="AF71" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AG71" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AH71" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AJ71" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -9231,33 +9232,33 @@
         <v>0.48</v>
       </c>
       <c r="AN71" s="1">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AO71" s="1">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H72" s="1">
         <v>0.48</v>
@@ -9266,34 +9267,34 @@
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M72" s="1">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N72" s="1">
         <v>0</v>
       </c>
       <c r="O72" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="P72" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="R72" s="1">
         <v>0</v>
       </c>
       <c r="S72" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="T72" s="1">
         <v>0</v>
@@ -9302,10 +9303,10 @@
         <v>0</v>
       </c>
       <c r="V72" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="W72" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="X72" s="1">
         <v>0</v>
@@ -9314,13 +9315,13 @@
         <v>0</v>
       </c>
       <c r="Z72" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AA72" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="1">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="AC72" s="1">
         <v>0</v>
@@ -9332,19 +9333,19 @@
         <v>0</v>
       </c>
       <c r="AF72" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AH72" s="1">
         <v>0</v>
       </c>
       <c r="AI72" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
@@ -9353,10 +9354,10 @@
         <v>0</v>
       </c>
       <c r="AM72" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AN72" s="1">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AO72" s="1">
         <v>0</v>
@@ -9364,13 +9365,13 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B73" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C73" s="1">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -9385,25 +9386,25 @@
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="J73" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M73" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N73" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="O73" s="1">
         <v>0</v>
@@ -9412,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="Q73" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="R73" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="S73" s="1">
         <v>0</v>
       </c>
       <c r="T73" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="U73" s="1">
         <v>0</v>
@@ -9439,13 +9440,13 @@
         <v>0</v>
       </c>
       <c r="Z73" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AA73" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AB73" s="1">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AC73" s="1">
         <v>0</v>
@@ -9457,22 +9458,22 @@
         <v>0</v>
       </c>
       <c r="AF73" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AG73" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AH73" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AI73" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AJ73" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -9481,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="AN73" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AO73" s="1">
         <v>0</v>
@@ -9489,13 +9490,13 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B74" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1">
-        <v>0.43</v>
+        <v>0.01</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -9513,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -9522,31 +9523,31 @@
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="M74" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="N74" s="1">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="O74" s="1">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="Q74" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S74" s="1">
         <v>0</v>
       </c>
       <c r="T74" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="U74" s="1">
         <v>0</v>
@@ -9567,13 +9568,13 @@
         <v>0</v>
       </c>
       <c r="AA74" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="1">
         <v>0</v>
       </c>
       <c r="AC74" s="1">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AD74" s="1">
         <v>0</v>
@@ -9582,22 +9583,22 @@
         <v>0</v>
       </c>
       <c r="AF74" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AG74" s="1">
         <v>0</v>
       </c>
       <c r="AH74" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AI74" s="1">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AJ74" s="1">
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -9609,117 +9610,117 @@
         <v>0</v>
       </c>
       <c r="AO74" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0</v>
+      </c>
+      <c r="X75" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="1">
         <v>0.01</v>
       </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0</v>
-      </c>
-      <c r="K75" s="1">
-        <v>0</v>
-      </c>
-      <c r="L75" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="M75" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="N75" s="1">
-        <v>0</v>
-      </c>
-      <c r="O75" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="P75" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>0</v>
-      </c>
-      <c r="R75" s="1">
-        <v>0</v>
-      </c>
-      <c r="S75" s="1">
-        <v>0</v>
-      </c>
-      <c r="T75" s="1">
-        <v>0</v>
-      </c>
-      <c r="U75" s="1">
-        <v>0</v>
-      </c>
-      <c r="V75" s="1">
-        <v>0</v>
-      </c>
-      <c r="W75" s="1">
-        <v>0</v>
-      </c>
-      <c r="X75" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC75" s="1">
+      <c r="AG75" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="1">
         <v>0.49</v>
       </c>
-      <c r="AD75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI75" s="1">
-        <v>0</v>
-      </c>
       <c r="AJ75" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AK75" s="1">
         <v>0</v>
@@ -9728,120 +9729,120 @@
         <v>0</v>
       </c>
       <c r="AM75" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AN75" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AO75" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B76" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="L76" s="1">
         <v>0.38</v>
       </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1">
-        <v>0</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0</v>
-      </c>
       <c r="M76" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N76" s="1">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="O76" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P76" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="Q76" s="1">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="S76" s="1">
         <v>0</v>
       </c>
       <c r="T76" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="U76" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="V76" s="1">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
       <c r="W76" s="1">
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
       </c>
       <c r="Z76" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="1">
         <v>0</v>
       </c>
       <c r="AB76" s="1">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="AC76" s="1">
         <v>0</v>
       </c>
       <c r="AD76" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="1">
         <v>0</v>
       </c>
       <c r="AF76" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AG76" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AH76" s="1">
         <v>0</v>
       </c>
       <c r="AI76" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AJ76" s="1">
         <v>0.48</v>
@@ -9853,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AM76" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AN76" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO76" s="1">
         <v>0</v>
@@ -9864,13 +9865,13 @@
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B77" s="1">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -9885,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
@@ -9894,22 +9895,22 @@
         <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="M77" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N77" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O77" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="P77" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="Q77" s="1">
         <v>0</v>
@@ -9921,19 +9922,19 @@
         <v>0</v>
       </c>
       <c r="T77" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="U77" s="1">
         <v>0</v>
       </c>
       <c r="V77" s="1">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="W77" s="1">
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -9942,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="AA77" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AB77" s="1">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AC77" s="1">
         <v>0</v>
@@ -9966,10 +9967,10 @@
         <v>0</v>
       </c>
       <c r="AI77" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
@@ -9989,85 +9990,85 @@
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B78" s="1">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="C78" s="1">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H78" s="1">
         <v>0</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="K78" s="1">
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="M78" s="1">
         <v>0</v>
       </c>
       <c r="N78" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="O78" s="1">
-        <v>0.48</v>
+        <v>0.01</v>
       </c>
       <c r="P78" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="R78" s="1">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="S78" s="1">
         <v>0</v>
       </c>
       <c r="T78" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="U78" s="1">
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="W78" s="1">
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="Y78" s="1">
         <v>0</v>
       </c>
       <c r="Z78" s="1">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AA78" s="1">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AB78" s="1">
         <v>0</v>
@@ -10076,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="AD78" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AE78" s="1">
         <v>0</v>
@@ -10085,16 +10086,16 @@
         <v>0</v>
       </c>
       <c r="AG78" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AH78" s="1">
         <v>0</v>
       </c>
       <c r="AI78" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AJ78" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AK78" s="1">
         <v>0</v>
@@ -10103,21 +10104,21 @@
         <v>0</v>
       </c>
       <c r="AM78" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AN78" s="1">
         <v>0</v>
       </c>
       <c r="AO78" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -10126,73 +10127,73 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
         <v>0.26</v>
       </c>
-      <c r="F79" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H79" s="1">
-        <v>0</v>
-      </c>
       <c r="I79" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="J79" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M79" s="1">
         <v>0</v>
       </c>
       <c r="N79" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="O79" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P79" s="1">
         <v>0</v>
       </c>
       <c r="Q79" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="R79" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="S79" s="1">
         <v>0</v>
       </c>
       <c r="T79" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="U79" s="1">
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="W79" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="X79" s="1">
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
       <c r="Y79" s="1">
         <v>0</v>
       </c>
       <c r="Z79" s="1">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AA79" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AB79" s="1">
         <v>0</v>
@@ -10201,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="AD79" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AE79" s="1">
         <v>0</v>
@@ -10210,75 +10211,75 @@
         <v>0</v>
       </c>
       <c r="AG79" s="1">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="AH79" s="1">
         <v>0</v>
       </c>
       <c r="AI79" s="1">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AK79" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AL79" s="1">
         <v>0</v>
       </c>
       <c r="AM79" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AN79" s="1">
         <v>0</v>
       </c>
       <c r="AO79" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J80" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K80" s="1">
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M80" s="1">
         <v>0</v>
       </c>
       <c r="N80" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="O80" s="1">
         <v>0</v>
@@ -10290,13 +10291,13 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="S80" s="1">
         <v>0</v>
       </c>
       <c r="T80" s="1">
-        <v>0.49</v>
+        <v>0.03</v>
       </c>
       <c r="U80" s="1">
         <v>0</v>
@@ -10305,23 +10306,23 @@
         <v>0</v>
       </c>
       <c r="W80" s="1">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="X80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="1">
         <v>0.06</v>
       </c>
-      <c r="Y80" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB80" s="1">
-        <v>0</v>
-      </c>
       <c r="AC80" s="1">
         <v>0</v>
       </c>
@@ -10332,10 +10333,10 @@
         <v>0</v>
       </c>
       <c r="AF80" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG80" s="1">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="AH80" s="1">
         <v>0</v>
@@ -10344,13 +10345,13 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AK80" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AL80" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -10364,19 +10365,19 @@
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B81" s="1">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
       <c r="C81" s="1">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E81" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1">
         <v>0.48</v>
@@ -10385,43 +10386,43 @@
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I81" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="1">
-        <v>0.2</v>
+        <v>0.47</v>
       </c>
       <c r="K81" s="1">
         <v>0</v>
       </c>
       <c r="L81" s="1">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="M81" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="N81" s="1">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="O81" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P81" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="Q81" s="1">
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="S81" s="1">
         <v>0</v>
       </c>
       <c r="T81" s="1">
-        <v>0.03</v>
+        <v>0.47</v>
       </c>
       <c r="U81" s="1">
         <v>0</v>
@@ -10433,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="X81" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Y81" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="1">
         <v>0</v>
       </c>
       <c r="AA81" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AB81" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="1">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AD81" s="1">
         <v>0</v>
@@ -10457,31 +10458,31 @@
         <v>0</v>
       </c>
       <c r="AF81" s="1">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="AG81" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AH81" s="1">
         <v>0</v>
       </c>
       <c r="AI81" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AJ81" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AK81" s="1">
         <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="AM81" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AN81" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AO81" s="1">
         <v>0</v>
@@ -10489,100 +10490,100 @@
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B82" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="D82" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F82" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="H82" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="J82" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
       </c>
       <c r="M82" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N82" s="1">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="O82" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
         <v>0.13</v>
       </c>
-      <c r="P82" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>0</v>
-      </c>
-      <c r="R82" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="S82" s="1">
-        <v>0</v>
-      </c>
       <c r="T82" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="U82" s="1">
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="W82" s="1">
         <v>0</v>
       </c>
       <c r="X82" s="1">
-        <v>0.02</v>
+        <v>0.47</v>
       </c>
       <c r="Y82" s="1">
         <v>0</v>
       </c>
       <c r="Z82" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AA82" s="1">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="AB82" s="1">
         <v>0</v>
       </c>
       <c r="AC82" s="1">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AD82" s="1">
         <v>0</v>
       </c>
       <c r="AE82" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AF82" s="1">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AG82" s="1">
         <v>0</v>
@@ -10591,60 +10592,60 @@
         <v>0</v>
       </c>
       <c r="AI82" s="1">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="AJ82" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AK82" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AL82" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AM82" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AN82" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AO82" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B83" s="1">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="C83" s="1">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="E83" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
       </c>
       <c r="I83" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
       </c>
       <c r="K83" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L83" s="1">
         <v>0</v>
@@ -10656,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="P83" s="1">
         <v>0</v>
@@ -10668,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T83" s="1">
         <v>0</v>
@@ -10677,22 +10678,22 @@
         <v>0</v>
       </c>
       <c r="V83" s="1">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="W83" s="1">
         <v>0</v>
       </c>
       <c r="X83" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="1">
         <v>0</v>
       </c>
       <c r="Z83" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="1">
         <v>0</v>
@@ -10704,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="AE83" s="1">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="1">
         <v>0</v>
@@ -10716,13 +10717,13 @@
         <v>0</v>
       </c>
       <c r="AI83" s="1">
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
       <c r="AJ83" s="1">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AK83" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="1">
         <v>0</v>
@@ -10731,51 +10732,51 @@
         <v>0</v>
       </c>
       <c r="AN83" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO83" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
         <v>0.38</v>
       </c>
-      <c r="C84" s="1">
+      <c r="K84" s="1">
         <v>0.1</v>
       </c>
-      <c r="D84" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1">
-        <v>0</v>
-      </c>
-      <c r="I84" s="1">
-        <v>0</v>
-      </c>
-      <c r="J84" s="1">
-        <v>0</v>
-      </c>
-      <c r="K84" s="1">
-        <v>0</v>
-      </c>
       <c r="L84" s="1">
         <v>0</v>
       </c>
       <c r="M84" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="N84" s="1">
         <v>0</v>
@@ -10799,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V84" s="1">
         <v>0</v>
@@ -10811,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Z84" s="1">
         <v>0</v>
@@ -10820,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="AB84" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC84" s="1">
         <v>0</v>
@@ -10832,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="AF84" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AG84" s="1">
         <v>0</v>
@@ -10841,10 +10842,10 @@
         <v>0</v>
       </c>
       <c r="AI84" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AJ84" s="1">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AK84" s="1">
         <v>0</v>
@@ -10856,15 +10857,15 @@
         <v>0</v>
       </c>
       <c r="AN84" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AO84" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -10888,55 +10889,55 @@
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="J85" s="1">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="U85" s="1">
+        <v>0</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0</v>
+      </c>
+      <c r="W85" s="1">
+        <v>0</v>
+      </c>
+      <c r="X85" s="1">
         <v>0.1</v>
       </c>
-      <c r="L85" s="1">
-        <v>0</v>
-      </c>
-      <c r="M85" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="N85" s="1">
-        <v>0</v>
-      </c>
-      <c r="O85" s="1">
-        <v>0</v>
-      </c>
-      <c r="P85" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>0</v>
-      </c>
-      <c r="R85" s="1">
-        <v>0</v>
-      </c>
-      <c r="S85" s="1">
-        <v>0</v>
-      </c>
-      <c r="T85" s="1">
-        <v>0</v>
-      </c>
-      <c r="U85" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="V85" s="1">
-        <v>0</v>
-      </c>
-      <c r="W85" s="1">
-        <v>0</v>
-      </c>
-      <c r="X85" s="1">
-        <v>0</v>
-      </c>
       <c r="Y85" s="1">
-        <v>0.03</v>
+        <v>0.39</v>
       </c>
       <c r="Z85" s="1">
         <v>0</v>
@@ -10945,19 +10946,19 @@
         <v>0</v>
       </c>
       <c r="AB85" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AC85" s="1">
         <v>0</v>
       </c>
       <c r="AD85" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AE85" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AF85" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AG85" s="1">
         <v>0</v>
@@ -10966,22 +10967,22 @@
         <v>0</v>
       </c>
       <c r="AI85" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AJ85" s="1">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AK85" s="1">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AL85" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
       </c>
       <c r="AN85" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AO85" s="1">
         <v>0</v>
@@ -10989,10 +10990,10 @@
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -11013,76 +11014,76 @@
         <v>0</v>
       </c>
       <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
+      </c>
+      <c r="P86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0</v>
+      </c>
+      <c r="R86" s="1">
+        <v>0</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0</v>
+      </c>
+      <c r="U86" s="1">
+        <v>0</v>
+      </c>
+      <c r="V86" s="1">
+        <v>0</v>
+      </c>
+      <c r="W86" s="1">
+        <v>0</v>
+      </c>
+      <c r="X86" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="1">
         <v>0.34</v>
       </c>
-      <c r="J86" s="1">
-        <v>0</v>
-      </c>
-      <c r="K86" s="1">
-        <v>0</v>
-      </c>
-      <c r="L86" s="1">
-        <v>0</v>
-      </c>
-      <c r="M86" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="N86" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="O86" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P86" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="1">
-        <v>0</v>
-      </c>
-      <c r="R86" s="1">
-        <v>0</v>
-      </c>
-      <c r="S86" s="1">
-        <v>0</v>
-      </c>
-      <c r="T86" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="U86" s="1">
-        <v>0</v>
-      </c>
-      <c r="V86" s="1">
-        <v>0</v>
-      </c>
-      <c r="W86" s="1">
-        <v>0</v>
-      </c>
-      <c r="X86" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y86" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="Z86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="1">
-        <v>0</v>
-      </c>
       <c r="AC86" s="1">
         <v>0</v>
       </c>
       <c r="AD86" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AE86" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF86" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AG86" s="1">
         <v>0</v>
@@ -11091,22 +11092,22 @@
         <v>0</v>
       </c>
       <c r="AI86" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AK86" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AL86" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
       </c>
       <c r="AN86" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AO86" s="1">
         <v>0</v>
@@ -11114,88 +11115,88 @@
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B87" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>0</v>
+      </c>
+      <c r="R87" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0</v>
+      </c>
+      <c r="U87" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="V87" s="1">
+        <v>0</v>
+      </c>
+      <c r="W87" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="X87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="Z87" s="1">
         <v>0.49</v>
       </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1">
-        <v>0</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0</v>
-      </c>
-      <c r="I87" s="1">
-        <v>0</v>
-      </c>
-      <c r="J87" s="1">
-        <v>0</v>
-      </c>
-      <c r="K87" s="1">
-        <v>0</v>
-      </c>
-      <c r="L87" s="1">
-        <v>0</v>
-      </c>
-      <c r="M87" s="1">
-        <v>0</v>
-      </c>
-      <c r="N87" s="1">
-        <v>0</v>
-      </c>
-      <c r="O87" s="1">
-        <v>0</v>
-      </c>
-      <c r="P87" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="1">
-        <v>0</v>
-      </c>
-      <c r="R87" s="1">
-        <v>0</v>
-      </c>
-      <c r="S87" s="1">
-        <v>0</v>
-      </c>
-      <c r="T87" s="1">
-        <v>0</v>
-      </c>
-      <c r="U87" s="1">
-        <v>0</v>
-      </c>
-      <c r="V87" s="1">
-        <v>0</v>
-      </c>
-      <c r="W87" s="1">
-        <v>0</v>
-      </c>
-      <c r="X87" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="Y87" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z87" s="1">
-        <v>0</v>
-      </c>
       <c r="AA87" s="1">
         <v>0</v>
       </c>
       <c r="AB87" s="1">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="AC87" s="1">
         <v>0</v>
@@ -11213,279 +11214,1227 @@
         <v>0</v>
       </c>
       <c r="AH87" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AI87" s="1">
         <v>0</v>
       </c>
       <c r="AJ87" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AK87" s="1">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AL87" s="1">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AM87" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AN87" s="1">
         <v>0</v>
       </c>
       <c r="AO87" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B88" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
       <c r="F88" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G88" s="1">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H88" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I88" s="1">
-        <v>0.18</v>
+        <v>0.47</v>
       </c>
       <c r="J88" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
       </c>
       <c r="L88" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M88" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="P88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>0</v>
+      </c>
+      <c r="R88" s="1">
+        <v>0</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="U88" s="1">
+        <v>0</v>
+      </c>
+      <c r="V88" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="W88" s="1">
+        <v>0</v>
+      </c>
+      <c r="X88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AK88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="1">
         <v>0.22</v>
       </c>
-      <c r="O88" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P88" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>0</v>
-      </c>
-      <c r="R88" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="S88" s="1">
-        <v>0</v>
-      </c>
-      <c r="T88" s="1">
-        <v>0</v>
-      </c>
-      <c r="U88" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="V88" s="1">
-        <v>0</v>
-      </c>
-      <c r="W88" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="X88" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="Z88" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="AA88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB88" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AC88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH88" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="AI88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ88" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="AK88" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="AL88" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="AM88" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="AN88" s="1">
-        <v>0</v>
-      </c>
       <c r="AO88" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>125</v>
-      </c>
-      <c r="B89" s="1">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="F89" s="1">
-        <v>0</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0</v>
-      </c>
-      <c r="H89" s="1">
-        <v>0</v>
-      </c>
-      <c r="I89" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="J89" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="K89" s="1">
-        <v>0</v>
-      </c>
-      <c r="L89" s="1">
-        <v>0</v>
-      </c>
-      <c r="M89" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="N89" s="1">
-        <v>0</v>
-      </c>
-      <c r="O89" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="P89" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>0</v>
-      </c>
-      <c r="R89" s="1">
-        <v>0</v>
-      </c>
-      <c r="S89" s="1">
-        <v>0</v>
-      </c>
-      <c r="T89" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="U89" s="1">
-        <v>0</v>
-      </c>
-      <c r="V89" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="W89" s="1">
-        <v>0</v>
-      </c>
-      <c r="X89" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AC89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE89" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="AF89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG89" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="AH89" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AI89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AK89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN89" s="1">
+      <c r="A89" s="2">
+        <v>133</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>0</v>
+      </c>
+      <c r="R89" s="2">
+        <v>0</v>
+      </c>
+      <c r="S89" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="T89" s="2">
+        <v>0</v>
+      </c>
+      <c r="U89" s="2">
+        <v>0</v>
+      </c>
+      <c r="V89" s="2">
+        <v>0</v>
+      </c>
+      <c r="W89" s="2">
+        <v>0</v>
+      </c>
+      <c r="X89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AK89" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="AL89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="AO89" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>134</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="O90" s="2">
+        <v>0</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="R90" s="2">
+        <v>0</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="T90" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="U90" s="2">
+        <v>0</v>
+      </c>
+      <c r="V90" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="W90" s="2">
+        <v>0</v>
+      </c>
+      <c r="X90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AC90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AE90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AG90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AK90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="AM90" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AN90" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="AO90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>135</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="O91" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="P91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>0</v>
+      </c>
+      <c r="R91" s="2">
+        <v>0</v>
+      </c>
+      <c r="S91" s="2">
+        <v>0</v>
+      </c>
+      <c r="T91" s="2">
+        <v>0</v>
+      </c>
+      <c r="U91" s="2">
+        <v>0</v>
+      </c>
+      <c r="V91" s="2">
+        <v>0</v>
+      </c>
+      <c r="W91" s="2">
+        <v>0</v>
+      </c>
+      <c r="X91" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="Y91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AC91" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD91" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="AE91" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AF91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="AL91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AO91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>130</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0</v>
+      </c>
+      <c r="P92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>0</v>
+      </c>
+      <c r="R92" s="2">
+        <v>0</v>
+      </c>
+      <c r="S92" s="2">
+        <v>0</v>
+      </c>
+      <c r="T92" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="U92" s="2">
+        <v>0</v>
+      </c>
+      <c r="V92" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="W92" s="2">
+        <v>0</v>
+      </c>
+      <c r="X92" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AF92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="AM92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN92" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AO92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>131</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2">
+        <v>0</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>0</v>
+      </c>
+      <c r="R93" s="2">
+        <v>0</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2">
+        <v>0</v>
+      </c>
+      <c r="U93" s="2">
+        <v>0</v>
+      </c>
+      <c r="V93" s="2">
+        <v>0</v>
+      </c>
+      <c r="W93" s="2">
+        <v>0</v>
+      </c>
+      <c r="X93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>132</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <v>0</v>
+      </c>
+      <c r="P94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>0</v>
+      </c>
+      <c r="R94" s="2">
+        <v>0</v>
+      </c>
+      <c r="S94" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="T94" s="2">
+        <v>0</v>
+      </c>
+      <c r="U94" s="2">
+        <v>0</v>
+      </c>
+      <c r="V94" s="2">
+        <v>0</v>
+      </c>
+      <c r="W94" s="2">
         <v>0.22</v>
       </c>
-      <c r="AO89" s="1">
-        <v>0</v>
-      </c>
+      <c r="X94" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>102</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>0</v>
+      </c>
+      <c r="R95" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="S95" s="2">
+        <v>0</v>
+      </c>
+      <c r="T95" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="U95" s="2">
+        <v>0</v>
+      </c>
+      <c r="V95" s="2">
+        <v>0</v>
+      </c>
+      <c r="W95" s="2">
+        <v>0</v>
+      </c>
+      <c r="X95" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y95" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AD95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AH95" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AI95" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="AJ95" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AK95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AM95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN95" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AO95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>104</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0</v>
+      </c>
+      <c r="O96" s="2">
+        <v>0</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>0</v>
+      </c>
+      <c r="R96" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="S96" s="2">
+        <v>0</v>
+      </c>
+      <c r="T96" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="U96" s="2">
+        <v>0</v>
+      </c>
+      <c r="V96" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="W96" s="2">
+        <v>0</v>
+      </c>
+      <c r="X96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AC96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AJ96" s="2"/>
+      <c r="AK96" s="2"/>
+      <c r="AL96" s="2"/>
+      <c r="AM96" s="2"/>
+      <c r="AN96" s="2"/>
+      <c r="AO96" s="2"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>107</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+      <c r="O97" s="2">
+        <v>0</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>0</v>
+      </c>
+      <c r="R97" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="S97" s="2">
+        <v>0</v>
+      </c>
+      <c r="T97" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="U97" s="2">
+        <v>0</v>
+      </c>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="2"/>
+      <c r="AG97" s="2"/>
+      <c r="AH97" s="2"/>
+      <c r="AI97" s="2"/>
+      <c r="AJ97" s="2"/>
+      <c r="AK97" s="2"/>
+      <c r="AL97" s="2"/>
+      <c r="AM97" s="2"/>
+      <c r="AN97" s="2"/>
+      <c r="AO97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
